--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_7_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_7_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001330828572687071</v>
+        <v>0.002260202406518697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001330828572687071</v>
+        <v>0.002260202406518697</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.76675307061868</v>
+        <v>38.2653496181079</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[14.377224956928771, 67.15628118430858]</t>
+          <t>[13.818372053445216, 62.71232718277058]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.003229621668414895</v>
+        <v>0.002879413271802633</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003229621668414895</v>
+        <v>0.002879413271802633</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83023716155081</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 2.6478688832058124]</t>
+          <t>[0.6352369529781168, 2.371131992799503]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.630822275220048e-05</v>
+        <v>0.001098967879748614</v>
       </c>
       <c r="S2" t="n">
-        <v>4.630822275220048e-05</v>
+        <v>0.001098967879748614</v>
       </c>
       <c r="T2" t="n">
-        <v>66.71294431242865</v>
+        <v>70.0236745469339</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.28929262432937, 82.13659600052793]</t>
+          <t>[55.077812407992006, 84.9695366858758]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.249711610919803e-11</v>
+        <v>3.099520640148512e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>3.249711610919803e-11</v>
+        <v>3.099520640148512e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.32012012012055</v>
+        <v>19.37657657657699</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.9562562562566</v>
+        <v>15.85819819819854</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.68398398398449</v>
+        <v>22.89495495495544</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01464145053251287</v>
+        <v>2.201865450524032e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01464145053251287</v>
+        <v>2.201865450524032e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>32.70943525319618</v>
+        <v>64.93036482334588</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[3.6328414684820203, 61.78602903791033]</t>
+          <t>[36.20145901453736, 93.6592706321544]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02832653479750347</v>
+        <v>4.019823350631668e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02832653479750347</v>
+        <v>4.019823350631668e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17613178422681</v>
+        <v>1.012605439895808</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.018868424345884094, 2.371131992799503]</t>
+          <t>[0.5471843060306538, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.05357165974813061</v>
+        <v>6.964518546248577e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05357165974813061</v>
+        <v>6.964518546248577e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>54.35716836953447</v>
+        <v>72.48065717316312</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[38.90282495055858, 69.81151178851036]</t>
+          <t>[56.899115098472635, 88.06219924785361]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.646174138287165e-09</v>
+        <v>3.846700735721242e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>7.646174138287165e-09</v>
+        <v>3.846700735721242e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>21.0112112112117</v>
+        <v>21.36522522522568</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.09479479479517</v>
+        <v>19.47855855855898</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.92762762762823</v>
+        <v>23.25189189189239</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003779489719351825</v>
+        <v>3.319323371975269e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003779489719351825</v>
+        <v>3.319323371975269e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>39.97316282911682</v>
+        <v>57.00024578726656</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[10.736339435235593, 69.20998622299805]</t>
+          <t>[26.739390203025636, 87.26110137150748]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.00846936489279515</v>
+        <v>0.0004401763526786784</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00846936489279515</v>
+        <v>0.0004401763526786784</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.2704474156243464, 1.2641844311742716]</t>
+          <t>[0.15723686954903915, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1987922115442791</v>
+        <v>0.01170082849064302</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1987922115442791</v>
+        <v>0.01170082849064302</v>
       </c>
       <c r="T4" t="n">
-        <v>53.21944762853569</v>
+        <v>65.02890931150341</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.7797844482601, 68.65911080881128]</t>
+          <t>[49.477672480455176, 80.58014614255165]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.240212088582382e-08</v>
+        <v>8.444289711917463e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.240212088582382e-08</v>
+        <v>8.444289711917463e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>23.80580580580636</v>
+        <v>22.74198198198247</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.64894894894943</v>
+        <v>20.65135135135179</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.96266266266329</v>
+        <v>24.83261261261314</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001638803929702171</v>
+        <v>0.000572323077573933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001638803929702171</v>
+        <v>0.000572323077573933</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.93267531568176</v>
+        <v>54.35921817886717</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[22.365265992038815, 71.50008463932471]</t>
+          <t>[18.768876124325757, 89.94956023340859]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0003733969861434705</v>
+        <v>0.003560102229269058</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0003733969861434705</v>
+        <v>0.003560102229269058</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1949737182408073</v>
+        <v>0.8616580451287312</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.43397375995534837, 0.823921196436963]</t>
+          <t>[0.2704474156243464, 1.452868674633116]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.5355361613420579</v>
+        <v>0.005229782403173289</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5355361613420579</v>
+        <v>0.005229782403173289</v>
       </c>
       <c r="T5" t="n">
-        <v>52.84443132506431</v>
+        <v>72.71357195268374</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.90611273695024, 66.78274991317838]</t>
+          <t>[54.47194093358762, 90.95520297177985]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.173144914545787e-09</v>
+        <v>3.133373560615382e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.173144914545787e-09</v>
+        <v>3.133373560615382e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>25.04784784784843</v>
+        <v>21.97711711711759</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.46026026026078</v>
+        <v>19.58054054054097</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.63543543543609</v>
+        <v>24.37369369369421</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.447994639747208e-07</v>
+        <v>3.08365906891428e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.447994639747208e-07</v>
+        <v>3.08365906891428e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>68.10955529455565</v>
+        <v>52.10627700073142</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[44.572856912595114, 91.64625367651618]</t>
+          <t>[29.127194693692715, 75.08535930777012]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.611106193015303e-07</v>
+        <v>3.828460328225702e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>5.611106193015303e-07</v>
+        <v>3.828460328225702e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1761052938949232</v>
+        <v>0.01886842434588409</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 0.22642109215061623]</t>
+          <t>[-0.5094474573388856, 0.5471843060306538]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3829080210210623</v>
+        <v>0.9429745735848472</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3829080210210623</v>
+        <v>0.9429745735848472</v>
       </c>
       <c r="T6" t="n">
-        <v>80.72981209981511</v>
+        <v>60.61691953888273</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[66.690674856763, 94.76894934286722]</t>
+          <t>[46.58253285171922, 74.65130622604624]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.385625113594415e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.385625113594415e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>0.72452452452454</v>
+        <v>25.39351351351405</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.9315315315315564</v>
+        <v>23.25189189189239</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.380580580580636</v>
+        <v>27.53513513513572</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8500000000006</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002787051905881466</v>
+        <v>0.0002508315293856533</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002787051905881466</v>
+        <v>0.0002508315293856533</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.64989716724573</v>
+        <v>48.04793307136965</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.39820467339611, 81.90158966109536]</t>
+          <t>[19.482854984015436, 76.61301115872386]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002100535955120941</v>
+        <v>0.001472925541142311</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002100535955120941</v>
+        <v>0.001472925541142311</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4654211338651546</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, 0.16352634433100022]</t>
+          <t>[-1.1824212590087715, 0.02515789912784605]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.05990138855865079</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.05990138855865079</v>
       </c>
       <c r="T7" t="n">
-        <v>67.18444576225779</v>
+        <v>64.23028820279674</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.9402795916815, 83.42861193283409]</t>
+          <t>[48.899027790617616, 79.56154861497586]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.145730177398718e-10</v>
+        <v>8.010481167275429e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.145730177398718e-10</v>
+        <v>8.010481167275429e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>1.914814814814861</v>
+        <v>2.345585585585638</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.6727727727727872</v>
+        <v>-0.1019819819819818</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.502402402402509</v>
+        <v>4.793153153153259</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.130433312821147e-06</v>
+        <v>0.03630998020411835</v>
       </c>
       <c r="I8" t="n">
-        <v>4.130433312821147e-06</v>
+        <v>0.03630998020411835</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.40819814848651</v>
+        <v>26.55755386228485</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[30.804434974724927, 88.01196132224808]</t>
+          <t>[0.4906458540399683, 52.624461870529736]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001312997485745093</v>
+        <v>0.04601344712930056</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001312997485745093</v>
+        <v>0.04601344712930056</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.069210712933463</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.572368695490388, -0.5660527303765388]</t>
+          <t>[-2.7422110049352346, -0.05031579825569299]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>0.04235620862975131</v>
       </c>
       <c r="S8" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>0.04235620862975131</v>
       </c>
       <c r="T8" t="n">
-        <v>68.16019620330508</v>
+        <v>46.75645346878935</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.05728462846126, 83.26310777814889]</t>
+          <t>[32.17701628506698, 61.33589065251171]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.468426043213185e-12</v>
+        <v>6.481926018153672e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>9.468426043213185e-12</v>
+        <v>6.481926018153672e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>4.313813813813905</v>
+        <v>5.64222222222234</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.28378378378383</v>
+        <v>0.2033233233233291</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.343843843843979</v>
+        <v>11.08112112112135</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.323395359797424e-05</v>
+        <v>0.0004598573876097856</v>
       </c>
       <c r="I9" t="n">
-        <v>6.323395359797424e-05</v>
+        <v>0.0004598573876097856</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>61.78954443004784</v>
+        <v>48.03432623065863</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.595065958562955, 90.98402290153273]</t>
+          <t>[19.073428349195154, 76.9952241121221]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0001019759710347845</v>
+        <v>0.001688319712224828</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001019759710347845</v>
+        <v>0.001688319712224828</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.547210796362541</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.163579324994773, -0.9308422677303092]</t>
+          <t>[-2.0252108797916186, -0.6163685286322309]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.637302375851363e-06</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="S9" t="n">
-        <v>7.637302375851363e-06</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="T9" t="n">
-        <v>59.46056482561974</v>
+        <v>58.9932840543011</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.06490767244303, 77.85622197879646]</t>
+          <t>[42.51328717674447, 75.47328093185773]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.443661565962543e-08</v>
+        <v>4.981713708218649e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>5.443661565962543e-08</v>
+        <v>4.981713708218649e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>6.242342342342472</v>
+        <v>5.337237237237346</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.755555555555633</v>
+        <v>2.490710710710758</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.72912912912931</v>
+        <v>8.183763763763935</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003496139487144001</v>
+        <v>1.500691633604667e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003496139487144001</v>
+        <v>1.500691633604667e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.64307230153145</v>
+        <v>56.82258412719541</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[10.931538517744329, 64.35460608531858]</t>
+          <t>[32.24424358082544, 81.40092467356538]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.006779975602335897</v>
+        <v>2.860713779817559e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006779975602335897</v>
+        <v>2.860713779817559e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.3396846188896956, -0.5283158816847702]</t>
+          <t>[-2.3019477701979265, -1.195000208572694]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.002599451648451323</v>
+        <v>9.021941327347349e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002599451648451323</v>
+        <v>9.021941327347349e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>55.39894255685397</v>
+        <v>73.03866894162972</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[39.99832405106233, 70.79956106264561]</t>
+          <t>[57.610311869126484, 88.46702601413295]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.418471588607531e-09</v>
+        <v>2.262634524186069e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>4.418471588607531e-09</v>
+        <v>2.262634524186069e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>5.785585585585707</v>
+        <v>7.065485485485635</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.131531531531579</v>
+        <v>4.828928928929031</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.439639639639836</v>
+        <v>9.302042042042238</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03641570030234764</v>
+        <v>0.004333530253169071</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03641570030234764</v>
+        <v>0.004333530253169071</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>35.19822015169729</v>
+        <v>40.99997780981782</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.7158910248091104, 71.1123313282037]</t>
+          <t>[11.090569994916748, 70.9093856247189]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05454475880016307</v>
+        <v>0.008311295287869669</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05454475880016307</v>
+        <v>0.008311295287869669</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.974895081535927</v>
+        <v>-1.836526636332771</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.3334216344396213, -0.6163685286322318]</t>
+          <t>[-2.76736890406308, -0.9056843686024632]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.005337162732781175</v>
+        <v>0.0002530794934716418</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005337162732781175</v>
+        <v>0.0002530794934716418</v>
       </c>
       <c r="T11" t="n">
-        <v>58.51949393359399</v>
+        <v>58.62093661154113</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[39.58568290670072, 77.45330496048726]</t>
+          <t>[41.68178773058621, 75.56008549249606]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.445639634667373e-07</v>
+        <v>1.12828735243653e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.445639634667373e-07</v>
+        <v>1.12828735243653e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>7.967867867868033</v>
+        <v>7.421301301301455</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.486786786786838</v>
+        <v>3.659819819819897</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.44894894894923</v>
+        <v>11.18278278278301</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.474069485198683e-06</v>
+        <v>5.878336928177852e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.474069485198683e-06</v>
+        <v>5.878336928177852e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>57.78947518311621</v>
+        <v>60.59451549893105</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[31.36204377152076, 84.21690659471166]</t>
+          <t>[26.721794388603115, 94.46723660925899]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6.483664354295371e-05</v>
+        <v>0.0007823944925435811</v>
       </c>
       <c r="O12" t="n">
-        <v>6.483664354295371e-05</v>
+        <v>0.0007823944925435811</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.94973718240808</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, -1.4591581494150785]</t>
+          <t>[-2.8302636518826967, -1.8239476867688484]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.392413017166973e-10</v>
+        <v>4.57212046001132e-12</v>
       </c>
       <c r="S12" t="n">
-        <v>3.392413017166973e-10</v>
+        <v>4.57212046001132e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>70.20401408566561</v>
+        <v>72.00749795454335</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[55.85758687183326, 84.55044129949795]</t>
+          <t>[54.724755626095615, 89.29024028299109]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.175682353339653e-13</v>
+        <v>9.34285981912808e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>8.175682353339653e-13</v>
+        <v>9.34285981912808e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>7.866366366366528</v>
+        <v>9.403703703703901</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.887087087087206</v>
+        <v>7.370470470470623</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.845645645645849</v>
+        <v>11.43693693693718</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00762514653222679</v>
+        <v>0.007513998086221885</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00762514653222679</v>
+        <v>0.007513998086221885</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.44306331309778</v>
+        <v>40.11055562345398</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[7.8623805965567755, 79.02374602963879]</t>
+          <t>[8.869828981892852, 71.3512822650151]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01783583077432871</v>
+        <v>0.01301930600674783</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01783583077432871</v>
+        <v>0.01301930600674783</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.308263735311773, -1.7484739893853107]</t>
+          <t>[-3.6227374744098513, -1.886842434588465]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.09409736615396e-08</v>
+        <v>8.144938101750654e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>5.09409736615396e-08</v>
+        <v>8.144938101750654e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>67.28609602756214</v>
+        <v>64.00635173239391</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[48.9065933613349, 85.66559869378938]</t>
+          <t>[47.20121423621998, 80.81148922856784]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.855714331673198e-09</v>
+        <v>1.041950969948857e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.855714331673198e-09</v>
+        <v>1.041950969948857e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>10.20090090090111</v>
+        <v>11.13195195195219</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.054354354354501</v>
+        <v>7.624624624624786</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.34744744744772</v>
+        <v>14.63927927927958</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.35000000000052</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.031038635830207e-06</v>
+        <v>5.769801657351525e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.031038635830207e-06</v>
+        <v>5.769801657351525e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>66.37599622022978</v>
+        <v>62.7103358736348</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[40.38584873937539, 92.36614370108417]</t>
+          <t>[33.79973511949642, 91.62093662777318]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.690687831849672e-06</v>
+        <v>7.266527328653183e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>5.690687831849672e-06</v>
+        <v>7.266527328653183e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>3.000079470995658</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 3.45292165529689]</t>
+          <t>[2.5598162362583508, 3.6667637978835823]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="T14" t="n">
-        <v>65.28671803004931</v>
+        <v>71.21981465981484</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.783514505174246, 80.78992155492438]</t>
+          <t>[53.625135211437836, 88.81449410819185]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.9330541307977e-11</v>
+        <v>2.068594184834183e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>6.9330541307977e-11</v>
+        <v>2.068594184834183e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>13.24594594594622</v>
+        <v>12.80936936936964</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.41891891891915</v>
+        <v>10.57281281281303</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.07297297297328</v>
+        <v>15.04592592592624</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_7_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_7_square_0.5_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002260202406518697</v>
+        <v>0.05922903524696244</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002260202406518697</v>
+        <v>0.05922903524696244</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.2653496181079</v>
+        <v>27.74818381211781</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[13.818372053445216, 62.71232718277058]</t>
+          <t>[-1.4869093140184475, 56.98327693825406]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002879413271802633</v>
+        <v>0.06229967751395216</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002879413271802633</v>
+        <v>0.06229967751395216</v>
       </c>
       <c r="P2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 2.371131992799503]</t>
+          <t>[-0.04402632347373103, 2.8239741771007347]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001098967879748614</v>
+        <v>0.05714494735909548</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001098967879748614</v>
+        <v>0.05714494735909548</v>
       </c>
       <c r="T2" t="n">
-        <v>70.0236745469339</v>
+        <v>64.12712555577596</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.077812407992006, 84.9695366858758]</t>
+          <t>[47.6524671809602, 80.60178393059172]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.099520640148512e-12</v>
+        <v>5.901841237943017e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>3.099520640148512e-12</v>
+        <v>5.901841237943017e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>19.37657657657699</v>
+        <v>19.85107107107149</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.85819819819854</v>
+        <v>14.03353353353383</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.89495495495544</v>
+        <v>25.66860860860915</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.201865450524032e-06</v>
+        <v>1.095196469858006e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.201865450524032e-06</v>
+        <v>1.095196469858006e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>64.93036482334588</v>
+        <v>48.95926865885762</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.20145901453736, 93.6592706321544]</t>
+          <t>[25.388138959999466, 72.53039835771577]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.019823350631668e-05</v>
+        <v>0.0001311745275918152</v>
       </c>
       <c r="O3" t="n">
-        <v>4.019823350631668e-05</v>
+        <v>0.0001311745275918152</v>
       </c>
       <c r="P3" t="n">
-        <v>1.012605439895808</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 1.478026573760963]</t>
+          <t>[0.6855527512338089, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.964518546248577e-05</v>
+        <v>3.831238604945497e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>6.964518546248577e-05</v>
+        <v>3.831238604945497e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>72.48065717316312</v>
+        <v>57.37080401279806</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[56.899115098472635, 88.06219924785361]</t>
+          <t>[44.40802979034177, 70.33357823525435]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.846700735721242e-12</v>
+        <v>1.676370153802509e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.846700735721242e-12</v>
+        <v>1.676370153802509e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>21.36522522522568</v>
+        <v>20.51447447447492</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.47855855855898</v>
+        <v>18.32014014014054</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.25189189189239</v>
+        <v>22.70880880880929</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.319323371975269e-05</v>
+        <v>0.001126503994056782</v>
       </c>
       <c r="I4" t="n">
-        <v>3.319323371975269e-05</v>
+        <v>0.001126503994056782</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>57.00024578726656</v>
+        <v>46.62998670853014</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[26.739390203025636, 87.26110137150748]</t>
+          <t>[15.438006222783926, 77.82196719427635]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0004401763526786784</v>
+        <v>0.004260173247964127</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0004401763526786784</v>
+        <v>0.004260173247964127</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6729738016698859</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 1.1887107337907326]</t>
+          <t>[0.4339737599553466, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01170082849064302</v>
+        <v>0.001892047665691399</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01170082849064302</v>
+        <v>0.001892047665691399</v>
       </c>
       <c r="T4" t="n">
-        <v>65.02890931150341</v>
+        <v>73.67360818332534</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.477672480455176, 80.58014614255165]</t>
+          <t>[56.875417497344934, 90.47179886930576]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.444289711917463e-11</v>
+        <v>2.180899905113165e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>8.444289711917463e-11</v>
+        <v>2.180899905113165e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>22.74198198198247</v>
+        <v>20.9737537537542</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.65135135135179</v>
+        <v>18.21807807807847</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.83261261261314</v>
+        <v>23.72942942942994</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000572323077573933</v>
+        <v>9.276018905102212e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000572323077573933</v>
+        <v>9.276018905102212e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>54.35921817886717</v>
+        <v>51.67806289797722</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.768876124325757, 89.94956023340859]</t>
+          <t>[28.125049278346253, 75.23107651760819]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.003560102229269058</v>
+        <v>6.180138479328079e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003560102229269058</v>
+        <v>6.180138479328079e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8616580451287312</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.452868674633116]</t>
+          <t>[-0.1823947686768852, 0.8239211964369622]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.005229782403173289</v>
+        <v>0.205716942770946</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005229782403173289</v>
+        <v>0.205716942770946</v>
       </c>
       <c r="T5" t="n">
-        <v>72.71357195268374</v>
+        <v>58.33027847555711</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.47194093358762, 90.95520297177985]</t>
+          <t>[45.384158653165784, 71.27639829794843]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.133373560615382e-10</v>
+        <v>9.939160605654251e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>3.133373560615382e-10</v>
+        <v>9.939160605654251e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>21.97711711711759</v>
+        <v>24.18870870870923</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.58054054054097</v>
+        <v>22.14746746746794</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.37369369369421</v>
+        <v>26.22994994995051</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.08365906891428e-05</v>
+        <v>1.28685316180821e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>3.08365906891428e-05</v>
+        <v>1.28685316180821e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>52.10627700073142</v>
+        <v>73.89902629474165</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[29.127194693692715, 75.08535930777012]</t>
+          <t>[47.76799968038824, 100.03005290909505]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.828460328225702e-05</v>
+        <v>8.809431391032518e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>3.828460328225702e-05</v>
+        <v>8.809431391032518e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01886842434588409</v>
+        <v>0.1823947686768843</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5094474573388856, 0.5471843060306538]</t>
+          <t>[-0.19497371824080822, 0.5597632555945768]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9429745735848472</v>
+        <v>0.3355172190335853</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9429745735848472</v>
+        <v>0.3355172190335853</v>
       </c>
       <c r="T6" t="n">
-        <v>60.61691953888273</v>
+        <v>71.8886617608278</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.58253285171922, 74.65130622604624]</t>
+          <t>[56.86050912760676, 86.91681439404884]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.385625113594415e-11</v>
+        <v>1.646904834728957e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.385625113594415e-11</v>
+        <v>1.646904834728957e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>25.39351351351405</v>
+        <v>24.75005005005058</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.25189189189239</v>
+        <v>23.21911911911962</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.53513513513572</v>
+        <v>26.28098098098155</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.47000000000054</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002508315293856533</v>
+        <v>0.0001754672315983363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002508315293856533</v>
+        <v>0.0001754672315983363</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>48.04793307136965</v>
+        <v>50.34226732356511</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.482854984015436, 76.61301115872386]</t>
+          <t>[21.345137750385277, 79.33939689674494]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001472925541142311</v>
+        <v>0.00107180205881563</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001472925541142311</v>
+        <v>0.00107180205881563</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5786316799404627</v>
+        <v>-0.4151053356094625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1824212590087715, 0.02515789912784605]</t>
+          <t>[-1.0063159651138474, 0.17610529389492235]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05990138855865079</v>
+        <v>0.1641973363456388</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05990138855865079</v>
+        <v>0.1641973363456388</v>
       </c>
       <c r="T7" t="n">
-        <v>64.23028820279674</v>
+        <v>59.5785285521836</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.899027790617616, 79.56154861497586]</t>
+          <t>[44.05798782374919, 75.09906928061801]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.010481167275429e-11</v>
+        <v>8.500371517783378e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>8.010481167275429e-11</v>
+        <v>8.500371517783378e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>2.345585585585638</v>
+        <v>1.684024024024058</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1019819819819818</v>
+        <v>-0.7144344344344491</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.793153153153259</v>
+        <v>4.082482482482566</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03630998020411835</v>
+        <v>5.195316000849992e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03630998020411835</v>
+        <v>5.195316000849992e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>26.55755386228485</v>
+        <v>49.56463506759357</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.4906458540399683, 52.624461870529736]</t>
+          <t>[27.650676158737014, 71.47859397645013]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.04601344712930056</v>
+        <v>3.975902298702927e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04601344712930056</v>
+        <v>3.975902298702927e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.396263401595464</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.7422110049352346, -0.05031579825569299]</t>
+          <t>[-1.8616845354606184, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04235620862975131</v>
+        <v>1.105443110382964e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04235620862975131</v>
+        <v>1.105443110382964e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>46.75645346878935</v>
+        <v>63.71877338304248</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[32.17701628506698, 61.33589065251171]</t>
+          <t>[50.92701616690134, 76.51053059918362]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.481926018153672e-08</v>
+        <v>4.694022948115162e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>6.481926018153672e-08</v>
+        <v>4.694022948115162e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>5.64222222222234</v>
+        <v>5.529649649649766</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2033233233233291</v>
+        <v>3.551151151151227</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.08112112112135</v>
+        <v>7.508148148148305</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004598573876097856</v>
+        <v>0.0005063411175952881</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004598573876097856</v>
+        <v>0.0005063411175952881</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.03432623065863</v>
+        <v>44.19790251772984</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[19.073428349195154, 76.9952241121221]</t>
+          <t>[15.327986568706052, 73.06781846675364]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001688319712224828</v>
+        <v>0.003489922714739802</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001688319712224828</v>
+        <v>0.003489922714739802</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.320789704211925</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0252108797916186, -0.6163685286322309]</t>
+          <t>[-1.597526594618233, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.003317678449729522</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.003317678449729522</v>
       </c>
       <c r="T9" t="n">
-        <v>58.9932840543011</v>
+        <v>51.63548688619549</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.51328717674447, 75.47328093185773]</t>
+          <t>[36.501333523649855, 66.76964024874113]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.981713708218649e-09</v>
+        <v>1.578926633882816e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>4.981713708218649e-09</v>
+        <v>1.578926633882816e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>5.337237237237346</v>
+        <v>3.906266266266346</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.490710710710758</v>
+        <v>1.369729729729757</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.183763763763935</v>
+        <v>6.442802802802936</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.500691633604667e-05</v>
+        <v>0.0004284853217381146</v>
       </c>
       <c r="I10" t="n">
-        <v>1.500691633604667e-05</v>
+        <v>0.0004284853217381146</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>56.82258412719541</v>
+        <v>50.49651211467837</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.24424358082544, 81.40092467356538]</t>
+          <t>[22.953795887054866, 78.03922834230187]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.860713779817559e-05</v>
+        <v>0.0005981062562367967</v>
       </c>
       <c r="O10" t="n">
-        <v>2.860713779817559e-05</v>
+        <v>0.0005981062562367967</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.471737098979002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.3019477701979265, -1.195000208572694]</t>
+          <t>[-2.176158274558695, -0.767315923399309]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.021941327347349e-08</v>
+        <v>0.0001213561874728875</v>
       </c>
       <c r="S10" t="n">
-        <v>9.021941327347349e-08</v>
+        <v>0.0001213561874728875</v>
       </c>
       <c r="T10" t="n">
-        <v>73.03866894162972</v>
+        <v>71.46368720025544</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[57.610311869126484, 88.46702601413295]</t>
+          <t>[54.276383158732074, 88.6509912417788]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.262634524186069e-12</v>
+        <v>9.888889707099224e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.262634524186069e-12</v>
+        <v>9.888889707099224e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>7.065485485485635</v>
+        <v>5.935495495495619</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.828928928929031</v>
+        <v>3.094574574574641</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.302042042042238</v>
+        <v>8.776416416416597</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004333530253169071</v>
+        <v>2.680357332085492e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004333530253169071</v>
+        <v>2.680357332085492e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>40.99997780981782</v>
+        <v>69.87867714518534</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[11.090569994916748, 70.9093856247189]</t>
+          <t>[39.68518308509175, 100.07217120527892]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.008311295287869669</v>
+        <v>2.8146123506545e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008311295287869669</v>
+        <v>2.8146123506545e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.836526636332771</v>
+        <v>-1.849105585896695</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.76736890406308, -0.9056843686024632]</t>
+          <t>[-2.3396846188896956, -1.3585265529036952]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0002530794934716418</v>
+        <v>1.363428481226947e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0002530794934716418</v>
+        <v>1.363428481226947e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>58.62093661154113</v>
+        <v>78.05291951925874</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[41.68178773058621, 75.56008549249606]</t>
+          <t>[60.84804193496957, 95.2577971035479]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.12828735243653e-08</v>
+        <v>8.116174399219744e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12828735243653e-08</v>
+        <v>8.116174399219744e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>7.421301301301455</v>
+        <v>7.45741741741757</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.659819819819897</v>
+        <v>5.478918918919033</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.18278278278301</v>
+        <v>9.435915915916107</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.878336928177852e-05</v>
+        <v>4.190141753235288e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>5.878336928177852e-05</v>
+        <v>4.190141753235288e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.59451549893105</v>
+        <v>60.43166580039464</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[26.721794388603115, 94.46723660925899]</t>
+          <t>[31.11744872061601, 89.74588288017327]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0007823944925435811</v>
+        <v>0.0001448361614848626</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007823944925435811</v>
+        <v>0.0001448361614848626</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.327105669325773</v>
+        <v>-2.213895123250465</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.8302636518826967, -1.8239476867688484]</t>
+          <t>[-2.6667373075516965, -1.7610529389492333]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.57212046001132e-12</v>
+        <v>8.417710972707937e-13</v>
       </c>
       <c r="S12" t="n">
-        <v>4.57212046001132e-12</v>
+        <v>8.417710972707937e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>72.00749795454335</v>
+        <v>61.92875929284637</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.724755626095615, 89.29024028299109]</t>
+          <t>[47.01694224258162, 76.84057634311111]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9.34285981912808e-11</v>
+        <v>1.022044671117328e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>9.34285981912808e-11</v>
+        <v>1.022044671117328e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>9.403703703703901</v>
+        <v>8.928608608608794</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.370470470470623</v>
+        <v>7.10230230230245</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.43693693693718</v>
+        <v>10.75491491491514</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007513998086221885</v>
+        <v>0.0004598347757435173</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007513998086221885</v>
+        <v>0.0004598347757435173</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>40.11055562345398</v>
+        <v>53.17067196893542</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[8.869828981892852, 71.3512822650151]</t>
+          <t>[21.630756484702772, 84.71058745316807]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01301930600674783</v>
+        <v>0.001440848340404255</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01301930600674783</v>
+        <v>0.001440848340404255</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.754789954499158</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.6227374744098513, -1.886842434588465]</t>
+          <t>[-3.4843690292066984, -2.176158274558695]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.144938101750654e-08</v>
+        <v>3.216449329102034e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>8.144938101750654e-08</v>
+        <v>3.216449329102034e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>64.00635173239391</v>
+        <v>55.1978772387905</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.20121423621998, 80.81148922856784]</t>
+          <t>[38.01071506500037, 72.38503941258064]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.041950969948857e-09</v>
+        <v>6.281065112467843e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.041950969948857e-09</v>
+        <v>6.281065112467843e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>11.13195195195219</v>
+        <v>11.41441441441465</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.624624624624786</v>
+        <v>8.776416416416595</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.63927927927958</v>
+        <v>14.05241241241271</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.39000000000053</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.769801657351525e-05</v>
+        <v>0.004092508186087529</v>
       </c>
       <c r="I14" t="n">
-        <v>5.769801657351525e-05</v>
+        <v>0.004092508186087529</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>62.7103358736348</v>
+        <v>43.24305473018524</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[33.79973511949642, 91.62093662777318]</t>
+          <t>[12.448693408343601, 74.03741605202687]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.266527328653183e-05</v>
+        <v>0.006962861142264298</v>
       </c>
       <c r="O14" t="n">
-        <v>7.266527328653183e-05</v>
+        <v>0.006962861142264298</v>
       </c>
       <c r="P14" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.855421551010543</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[2.5598162362583508, 3.6667637978835823]</t>
+          <t>[-3.6982111717933908, -2.0126319302276947]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>1.860050047319817e-08</v>
       </c>
       <c r="S14" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>1.860050047319817e-08</v>
       </c>
       <c r="T14" t="n">
-        <v>71.21981465981484</v>
+        <v>57.18336644918412</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[53.625135211437836, 88.81449410819185]</t>
+          <t>[40.233354110481756, 74.13337878788649]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.068594184834183e-10</v>
+        <v>2.054213399382832e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>2.068594184834183e-10</v>
+        <v>2.054213399382832e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>12.80936936936964</v>
+        <v>11.51587587587611</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.57281281281303</v>
+        <v>8.116916916917083</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.04592592592624</v>
+        <v>14.91483483483515</v>
       </c>
     </row>
   </sheetData>
